--- a/backend/data/Descripcion_informacion_alcaparros.xlsx
+++ b/backend/data/Descripcion_informacion_alcaparros.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humbertozuluaga/Documents/PROYECTOS/PythonProjects/vueflaskformularios/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD3762-9B31-1146-9525-9634614D48AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C861AEF-AC03-8F4E-BD09-B802294FB291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29240" yWindow="9560" windowWidth="17020" windowHeight="16320" firstSheet="2" activeTab="12" xr2:uid="{729A6A68-F19C-4A9C-AF2F-C918408CE2E9}"/>
+    <workbookView xWindow="14600" yWindow="7300" windowWidth="30560" windowHeight="19600" activeTab="1" xr2:uid="{729A6A68-F19C-4A9C-AF2F-C918408CE2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Preguntas_en" sheetId="18" r:id="rId1"/>
     <sheet name="Preguntas" sheetId="1" r:id="rId2"/>
     <sheet name="Pregunta_periodo" sheetId="14" r:id="rId3"/>
-    <sheet name="Posibles_rtas_en" sheetId="19" r:id="rId4"/>
-    <sheet name="Posibles_rtas" sheetId="11" r:id="rId5"/>
-    <sheet name="Modalidades_cuestionario" sheetId="9" r:id="rId6"/>
-    <sheet name="Funcionarios" sheetId="8" r:id="rId7"/>
-    <sheet name="Conocimientos_en" sheetId="20" r:id="rId8"/>
-    <sheet name="Conocimientos" sheetId="3" r:id="rId9"/>
-    <sheet name="Pregunta_categoria" sheetId="16" r:id="rId10"/>
-    <sheet name="Categorias_preguntas" sheetId="15" r:id="rId11"/>
+    <sheet name="Posibles_rtas" sheetId="11" r:id="rId4"/>
+    <sheet name="Modalidades_cuestionario" sheetId="9" r:id="rId5"/>
+    <sheet name="Funcionarios" sheetId="8" r:id="rId6"/>
+    <sheet name="Conocimientos_en" sheetId="20" r:id="rId7"/>
+    <sheet name="Conocimientos" sheetId="3" r:id="rId8"/>
+    <sheet name="Pregunta_categoria" sheetId="16" r:id="rId9"/>
+    <sheet name="Categorias_preguntas" sheetId="15" r:id="rId10"/>
+    <sheet name="Networks" sheetId="22" r:id="rId11"/>
     <sheet name="Tareas" sheetId="4" r:id="rId12"/>
     <sheet name="Areas" sheetId="10" r:id="rId13"/>
     <sheet name="Recursos_en" sheetId="21" r:id="rId14"/>
@@ -33,7 +33,7 @@
     <sheet name="Periodos" sheetId="12" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Funcionarios!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Funcionarios!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="447">
   <si>
     <t>Modalidad</t>
   </si>
@@ -1334,6 +1334,69 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>Pedagogical practice (classroom, evaluation, curricular development)</t>
+  </si>
+  <si>
+    <t>Logistics / administrative</t>
+  </si>
+  <si>
+    <t>My professional development</t>
+  </si>
+  <si>
+    <t>Human development</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>pedago</t>
+  </si>
+  <si>
+    <t>logis</t>
+  </si>
+  <si>
+    <t>profdev</t>
+  </si>
+  <si>
+    <t>humdev</t>
+  </si>
+  <si>
+    <t>Name_es</t>
+  </si>
+  <si>
+    <t>Name_en</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Educational Model</t>
+  </si>
+  <si>
+    <t>educ_model</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>Descripcion_es</t>
+  </si>
+  <si>
+    <t>Descripcion_en</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1897,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2033,125 +2096,87 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843E93A3-31DF-4EF9-AE2F-6CFB3493B9DA}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37DBA92-3ACD-4ECC-B981-4ACA02D87D6F}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2160,53 +2185,73 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37DBA92-3ACD-4ECC-B981-4ACA02D87D6F}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20120888-54FD-E547-AE07-ABA1BD347C8B}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="C1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
+        <v>438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D4" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B6FCA-7230-448D-8AB3-EA49D7A9FD97}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2528,7 +2573,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2811,199 +2856,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA745A4-43A8-4BB6-B1EC-968C78316C93}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" t="s">
         <v>349</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" t="s">
         <v>349</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" t="s">
         <v>349</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" t="s">
         <v>349</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
@@ -3133,166 +3218,131 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A712BD4-B10D-4FB7-A694-614E49A14FBB}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74871C91-0278-42EA-88A7-88F9AAA1702C}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="90.5" customWidth="1"/>
+    <col min="3" max="3" width="110.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="C1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
         <v>389</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74871C91-0278-42EA-88A7-88F9AAA1702C}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D8">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C87AC3E-B3BB-4E1D-8D55-92367A671B4B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3351,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BFF06-8D57-49C9-8C64-072E2F5A5508}">
   <dimension ref="A1:G145"/>
   <sheetViews>
@@ -5850,12 +5900,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688AD5BD-242D-4DBF-8ACA-D32E3996998F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254AC4D3-D113-41C2-A9AD-5325EB4FEAED}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5881,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
         <v>358</v>
@@ -5892,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>358</v>
@@ -5903,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="C4" t="s">
         <v>358</v>
@@ -5914,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
         <v>358</v>
@@ -5925,7 +6095,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
         <v>358</v>
@@ -5936,7 +6106,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
         <v>358</v>
@@ -5958,7 +6128,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
         <v>358</v>
@@ -5966,122 +6136,129 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254AC4D3-D113-41C2-A9AD-5325EB4FEAED}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843E93A3-31DF-4EF9-AE2F-6CFB3493B9DA}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" t="s">
-        <v>358</v>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Descripcion_informacion_alcaparros.xlsx
+++ b/backend/data/Descripcion_informacion_alcaparros.xlsx
@@ -8,32 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humbertozuluaga/Documents/PROYECTOS/PythonProjects/vueflaskformularios/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C861AEF-AC03-8F4E-BD09-B802294FB291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A0F787-F4D6-8048-A92E-D8E67FBFDA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="7300" windowWidth="30560" windowHeight="19600" activeTab="1" xr2:uid="{729A6A68-F19C-4A9C-AF2F-C918408CE2E9}"/>
+    <workbookView xWindow="14600" yWindow="7300" windowWidth="30560" windowHeight="19600" firstSheet="4" activeTab="5" xr2:uid="{729A6A68-F19C-4A9C-AF2F-C918408CE2E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Preguntas_en" sheetId="18" r:id="rId1"/>
-    <sheet name="Preguntas" sheetId="1" r:id="rId2"/>
-    <sheet name="Pregunta_periodo" sheetId="14" r:id="rId3"/>
-    <sheet name="Posibles_rtas" sheetId="11" r:id="rId4"/>
-    <sheet name="Modalidades_cuestionario" sheetId="9" r:id="rId5"/>
-    <sheet name="Funcionarios" sheetId="8" r:id="rId6"/>
-    <sheet name="Conocimientos_en" sheetId="20" r:id="rId7"/>
-    <sheet name="Conocimientos" sheetId="3" r:id="rId8"/>
-    <sheet name="Pregunta_categoria" sheetId="16" r:id="rId9"/>
-    <sheet name="Categorias_preguntas" sheetId="15" r:id="rId10"/>
-    <sheet name="Networks" sheetId="22" r:id="rId11"/>
-    <sheet name="Tareas" sheetId="4" r:id="rId12"/>
-    <sheet name="Areas" sheetId="10" r:id="rId13"/>
-    <sheet name="Recursos_en" sheetId="21" r:id="rId14"/>
-    <sheet name="Recursos" sheetId="5" r:id="rId15"/>
-    <sheet name="Nodos" sheetId="6" r:id="rId16"/>
-    <sheet name="Respuesta" sheetId="17" r:id="rId17"/>
-    <sheet name="Periodos" sheetId="12" r:id="rId18"/>
+    <sheet name="Preguntas" sheetId="1" r:id="rId1"/>
+    <sheet name="Pregunta_periodo" sheetId="14" r:id="rId2"/>
+    <sheet name="Posibles_rtas" sheetId="11" r:id="rId3"/>
+    <sheet name="Modalidades_cuestionario" sheetId="9" r:id="rId4"/>
+    <sheet name="Funcionarios" sheetId="8" r:id="rId5"/>
+    <sheet name="Conocimientos" sheetId="3" r:id="rId6"/>
+    <sheet name="Pregunta_categoria" sheetId="16" r:id="rId7"/>
+    <sheet name="Categorias_preguntas" sheetId="15" r:id="rId8"/>
+    <sheet name="Networks" sheetId="22" r:id="rId9"/>
+    <sheet name="Tareas" sheetId="4" r:id="rId10"/>
+    <sheet name="Areas" sheetId="10" r:id="rId11"/>
+    <sheet name="Recursos" sheetId="5" r:id="rId12"/>
+    <sheet name="Nodos" sheetId="6" r:id="rId13"/>
+    <sheet name="Respuesta" sheetId="17" r:id="rId14"/>
+    <sheet name="Periodos" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Funcionarios!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Funcionarios!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="448">
   <si>
     <t>Modalidad</t>
   </si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Actor-Recurso</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
   </si>
   <si>
     <t>Tareas</t>
@@ -1397,6 +1391,12 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>Recursos_es</t>
+  </si>
+  <si>
+    <t>Recursos_en</t>
   </si>
 </sst>
 </file>
@@ -1893,373 +1893,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBA3DB-105D-4B89-B90C-01057E812F60}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA745A4-43A8-4BB6-B1EC-968C78316C93}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10">
+        <v>344</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11">
+        <v>345</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12">
+        <v>346</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13">
+        <v>347</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37DBA92-3ACD-4ECC-B981-4ACA02D87D6F}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="85" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20120888-54FD-E547-AE07-ABA1BD347C8B}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E82E7D5-DB47-4E0F-94C1-AFC578636371}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2274,13 +2151,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B6FCA-7230-448D-8AB3-EA49D7A9FD97}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2304,13 +2181,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
         <v>410</v>
-      </c>
-      <c r="C1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2329,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2340,10 +2217,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,10 +2228,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,10 +2239,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,10 +2250,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,10 +2261,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,10 +2272,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,10 +2283,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2417,10 +2294,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,10 +2305,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,10 +2316,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2327,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,10 +2338,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2472,95 +2349,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDC9CDB-AD24-412F-951F-40FCDA3A0933}">
-  <dimension ref="A1:C7"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80E30A-D643-4101-BBD0-D18733C83A96}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>446</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2568,103 +2466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E80E30A-D643-4101-BBD0-D18733C83A96}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="52.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C0FA54-06C1-4AB5-9B11-CB93486BFE98}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2676,10 +2478,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2687,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2695,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2703,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FFFFD1-4D76-4CAD-84E0-D935433544E9}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2728,22 +2530,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +2553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DF2789-D045-4F6F-87B6-2441883FE460}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2766,16 +2568,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2789,7 +2591,7 @@
         <v>44439</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2803,7 +2605,7 @@
         <v>44469</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,7 +2619,7 @@
         <v>44500</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2831,7 +2633,7 @@
         <v>44520</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,7 +2647,7 @@
         <v>44552</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2855,265 +2657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA745A4-43A8-4BB6-B1EC-968C78316C93}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11" t="s">
-        <v>349</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" t="s">
-        <v>349</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B126F2-BD15-4AA3-89BF-FE17420E3A2B}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD61"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3217,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74871C91-0278-42EA-88A7-88F9AAA1702C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3235,16 +2793,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
         <v>444</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>445</v>
-      </c>
-      <c r="D1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3266,10 +2824,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3280,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3294,10 +2852,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3308,10 +2866,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3322,10 +2880,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3336,10 +2894,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3351,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C87AC3E-B3BB-4E1D-8D55-92367A671B4B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3366,10 +2924,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3393,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +2959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BFF06-8D57-49C9-8C64-072E2F5A5508}">
   <dimension ref="A1:G145"/>
   <sheetViews>
@@ -3421,25 +2979,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3447,16 +3005,16 @@
         <v>7498</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3464,16 +3022,16 @@
         <v>12664</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3481,16 +3039,16 @@
         <v>11509</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3498,16 +3056,16 @@
         <v>12741</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3515,16 +3073,16 @@
         <v>7479</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3532,16 +3090,16 @@
         <v>7838</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3549,16 +3107,16 @@
         <v>7499</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3566,16 +3124,16 @@
         <v>9458</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3583,16 +3141,16 @@
         <v>7457</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3600,16 +3158,16 @@
         <v>7500</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3617,16 +3175,16 @@
         <v>10442</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3634,16 +3192,16 @@
         <v>11300</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3651,16 +3209,16 @@
         <v>7501</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3668,16 +3226,16 @@
         <v>10821</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3685,16 +3243,16 @@
         <v>7532</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,16 +3260,16 @@
         <v>7412</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3719,16 +3277,16 @@
         <v>10102</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3736,16 +3294,16 @@
         <v>7534</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3753,16 +3311,16 @@
         <v>7704</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3770,16 +3328,16 @@
         <v>7483</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3787,16 +3345,16 @@
         <v>7504</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3804,16 +3362,16 @@
         <v>7413</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3821,16 +3379,16 @@
         <v>7505</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,16 +3396,16 @@
         <v>10466</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3855,16 +3413,16 @@
         <v>7535</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,16 +3430,16 @@
         <v>9517</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3889,16 +3447,16 @@
         <v>7685</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3906,16 +3464,16 @@
         <v>7697</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3923,16 +3481,16 @@
         <v>7417</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,16 +3498,16 @@
         <v>7460</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,16 +3515,16 @@
         <v>12655</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3974,16 +3532,16 @@
         <v>7461</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3991,16 +3549,16 @@
         <v>12656</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,16 +3566,16 @@
         <v>7507</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4025,16 +3583,16 @@
         <v>11502</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4042,16 +3600,16 @@
         <v>11103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4059,16 +3617,16 @@
         <v>7420</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4076,16 +3634,16 @@
         <v>7508</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4093,16 +3651,16 @@
         <v>7538</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4110,16 +3668,16 @@
         <v>7462</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4127,16 +3685,16 @@
         <v>7842</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4144,16 +3702,16 @@
         <v>10720</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4161,16 +3719,16 @@
         <v>11052</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,16 +3736,16 @@
         <v>10461</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4195,16 +3753,16 @@
         <v>7703</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4212,16 +3770,16 @@
         <v>7702</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4229,16 +3787,16 @@
         <v>11063</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4246,16 +3804,16 @@
         <v>7540</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -4263,16 +3821,16 @@
         <v>7465</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4280,16 +3838,16 @@
         <v>7509</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4297,16 +3855,16 @@
         <v>7541</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4314,16 +3872,16 @@
         <v>7542</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4331,16 +3889,16 @@
         <v>7510</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4348,16 +3906,16 @@
         <v>7543</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4365,16 +3923,16 @@
         <v>7485</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4382,16 +3940,16 @@
         <v>7511</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4399,16 +3957,16 @@
         <v>7544</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4416,16 +3974,16 @@
         <v>7512</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4433,16 +3991,16 @@
         <v>12665</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4450,16 +4008,16 @@
         <v>7427</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4467,16 +4025,16 @@
         <v>9560</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4484,16 +4042,16 @@
         <v>11829</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4501,16 +4059,16 @@
         <v>12666</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4518,16 +4076,16 @@
         <v>11053</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4535,16 +4093,16 @@
         <v>7514</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,16 +4110,16 @@
         <v>9377</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4569,16 +4127,16 @@
         <v>11055</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4586,16 +4144,16 @@
         <v>7515</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4603,16 +4161,16 @@
         <v>7850</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4620,16 +4178,16 @@
         <v>7545</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4637,16 +4195,16 @@
         <v>7546</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4654,16 +4212,16 @@
         <v>9387</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4671,16 +4229,16 @@
         <v>7718</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4688,16 +4246,16 @@
         <v>11064</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4705,16 +4263,16 @@
         <v>11056</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4722,16 +4280,16 @@
         <v>7547</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4739,16 +4297,16 @@
         <v>11065</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4756,16 +4314,16 @@
         <v>7696</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4773,16 +4331,16 @@
         <v>10076</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4790,16 +4348,16 @@
         <v>10072</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4807,16 +4365,16 @@
         <v>5150</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4824,16 +4382,16 @@
         <v>10265</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4841,16 +4399,16 @@
         <v>11066</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4858,16 +4416,16 @@
         <v>11057</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,16 +4433,16 @@
         <v>12658</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4892,16 +4450,16 @@
         <v>4216</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4909,16 +4467,16 @@
         <v>7548</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4926,16 +4484,16 @@
         <v>11108</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,16 +4501,16 @@
         <v>7470</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4960,16 +4518,16 @@
         <v>7550</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,16 +4535,16 @@
         <v>10574</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4994,16 +4552,16 @@
         <v>7471</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5011,16 +4569,16 @@
         <v>11058</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5028,16 +4586,16 @@
         <v>12673</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5045,16 +4603,16 @@
         <v>11406</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5062,16 +4620,16 @@
         <v>7552</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5079,16 +4637,16 @@
         <v>7517</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5096,16 +4654,16 @@
         <v>12669</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5113,16 +4671,16 @@
         <v>7553</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5130,16 +4688,16 @@
         <v>11331</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5147,16 +4705,16 @@
         <v>7518</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -5164,16 +4722,16 @@
         <v>7556</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5181,16 +4739,16 @@
         <v>12670</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -5198,16 +4756,16 @@
         <v>7489</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5215,16 +4773,16 @@
         <v>12659</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5232,16 +4790,16 @@
         <v>7520</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5249,16 +4807,16 @@
         <v>9386</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -5266,16 +4824,16 @@
         <v>7490</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,16 +4841,16 @@
         <v>10328</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5300,16 +4858,16 @@
         <v>11069</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5317,16 +4875,16 @@
         <v>7474</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5334,16 +4892,16 @@
         <v>12667</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5351,16 +4909,16 @@
         <v>7719</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5368,16 +4926,16 @@
         <v>7522</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5385,16 +4943,16 @@
         <v>10893</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5402,16 +4960,16 @@
         <v>12668</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,16 +4977,16 @@
         <v>12671</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5436,16 +4994,16 @@
         <v>10074</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5453,16 +5011,16 @@
         <v>11060</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5470,16 +5028,16 @@
         <v>7523</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5487,16 +5045,16 @@
         <v>7558</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5504,16 +5062,16 @@
         <v>7492</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5521,16 +5079,16 @@
         <v>7493</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5538,16 +5096,16 @@
         <v>12813</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5555,16 +5113,16 @@
         <v>7561</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5572,16 +5130,16 @@
         <v>7447</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5589,16 +5147,16 @@
         <v>7446</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5606,16 +5164,16 @@
         <v>7642</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5623,16 +5181,16 @@
         <v>12663</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5640,16 +5198,16 @@
         <v>7693</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5657,16 +5215,16 @@
         <v>7699</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5674,16 +5232,16 @@
         <v>7562</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5691,16 +5249,16 @@
         <v>7701</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -5708,16 +5266,16 @@
         <v>10573</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5725,16 +5283,16 @@
         <v>11062</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5742,16 +5300,16 @@
         <v>7695</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -5759,16 +5317,16 @@
         <v>11054</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -5776,16 +5334,16 @@
         <v>9382</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5793,16 +5351,16 @@
         <v>7527</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -5810,16 +5368,16 @@
         <v>11403</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -5827,16 +5385,16 @@
         <v>7698</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -5844,16 +5402,16 @@
         <v>7380</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C143" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="F143" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -5861,16 +5419,16 @@
         <v>9439</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C144" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="F144" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -5878,16 +5436,16 @@
         <v>7700</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="D145" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -5900,132 +5458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688AD5BD-242D-4DBF-8ACA-D32E3996998F}">
-  <dimension ref="A1:C9"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254AC4D3-D113-41C2-A9AD-5325EB4FEAED}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254AC4D3-D113-41C2-A9AD-5325EB4FEAED}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6035,103 +5473,130 @@
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="D4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="D6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="D8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
         <v>357</v>
-      </c>
-      <c r="C9" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +5604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843E93A3-31DF-4EF9-AE2F-6CFB3493B9DA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -6151,10 +5616,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6259,6 +5724,170 @@
       </c>
       <c r="B14">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37DBA92-3ACD-4ECC-B981-4ACA02D87D6F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20120888-54FD-E547-AE07-ABA1BD347C8B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/Descripcion_informacion_alcaparros.xlsx
+++ b/backend/data/Descripcion_informacion_alcaparros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humbertozuluaga/Documents/PROYECTOS/PythonProjects/vueflaskformularios/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A0F787-F4D6-8048-A92E-D8E67FBFDA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7575525-F9A0-A144-944E-56F2AC2E5027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="7300" windowWidth="30560" windowHeight="19600" firstSheet="4" activeTab="5" xr2:uid="{729A6A68-F19C-4A9C-AF2F-C918408CE2E9}"/>
+    <workbookView xWindow="14600" yWindow="7300" windowWidth="38420" windowHeight="21880" activeTab="2" xr2:uid="{729A6A68-F19C-4A9C-AF2F-C918408CE2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Preguntas" sheetId="1" r:id="rId1"/>
@@ -1201,12 +1201,6 @@
     <t>What is your secondary source of knowledge and appropriation of this aspect?</t>
   </si>
   <si>
-    <t>[{"texto":"Never", "valor":0 },{"texto":"For trustworthiness", "valor":1 }, {"texto":"Due to authority", "valor":2},  {"texto":"For creativity", "valor":3},  {"texto":"For trustworthiness and authority", "valor":12},  {"texto":"For trustworthiness and creativity", "valor":13},  {"texto":"Due to authority and for creativity", "valor":23},  {"texto":"Por all the above reasons", "valor":123}]</t>
-  </si>
-  <si>
-    <t>[{"texto":"Nunca", "valor":0 },{"texto":"Por confiabilidad", "valor":1 }, {"texto":"Por autoridad", "valor":2},  {"texto":"Por creatividad", "valor":3},  {"texto":"Por confiabilidad y autoridad", "valor":12},  {"texto":"Por confiabilidad y creatividad", "valor":13},  {"texto":"Por autoridad y creatividad", "valor":23},  {"texto":"Por todas las razones anteriores", "valor":123}]</t>
-  </si>
-  <si>
     <t>[{"texto":"Definitely no", "valor":0 },{"texto":"Partially", "valor":1 },{"texto":"Definitely yes", "valor":2 }]</t>
   </si>
   <si>
@@ -1397,6 +1391,12 @@
   </si>
   <si>
     <t>Recursos_en</t>
+  </si>
+  <si>
+    <t>[{"texto":"Nunca", "valor":0 },{"texto":"Por confiabilidad", "valor":1 }, {"texto":"Por autoridad", "valor":2},  {"texto":"Por creatividad", "valor":3}]</t>
+  </si>
+  <si>
+    <t>[{"texto":"Never", "valor":0 },{"texto":"For trustworthiness", "valor":1 }, {"texto":"Due to authority", "valor":2},  {"texto":"For creativity", "valor":3}]</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA745A4-43A8-4BB6-B1EC-968C78316C93}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -1914,10 +1914,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2231,7 +2231,7 @@
         <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2242,7 +2242,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2264,7 +2264,7 @@
         <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2275,7 +2275,7 @@
         <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2286,7 +2286,7 @@
         <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2297,7 +2297,7 @@
         <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2308,7 +2308,7 @@
         <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2319,7 +2319,7 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2330,7 +2330,7 @@
         <v>327</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2338,10 +2338,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2368,10 +2368,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -2385,7 +2385,7 @@
         <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s">
         <v>366</v>
@@ -2399,7 +2399,7 @@
         <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
         <v>368</v>
@@ -2413,7 +2413,7 @@
         <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2427,7 +2427,7 @@
         <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D5" t="s">
         <v>364</v>
@@ -2441,7 +2441,7 @@
         <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
         <v>367</v>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74871C91-0278-42EA-88A7-88F9AAA1702C}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2796,13 +2796,13 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" t="s">
         <v>443</v>
-      </c>
-      <c r="C1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2824,13 +2824,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>340</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>342</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>343</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>341</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5402,16 +5402,16 @@
         <v>7380</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,13 +5419,13 @@
         <v>9439</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>327</v>
@@ -5436,13 +5436,13 @@
         <v>7700</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>322</v>
@@ -5462,7 +5462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254AC4D3-D113-41C2-A9AD-5325EB4FEAED}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5478,10 +5478,10 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -5495,7 +5495,7 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
         <v>357</v>
@@ -5509,7 +5509,7 @@
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
         <v>357</v>
@@ -5523,7 +5523,7 @@
         <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
         <v>357</v>
@@ -5537,7 +5537,7 @@
         <v>352</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
         <v>357</v>
@@ -5551,7 +5551,7 @@
         <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
         <v>357</v>
@@ -5565,7 +5565,7 @@
         <v>354</v>
       </c>
       <c r="C7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
         <v>357</v>
@@ -5593,7 +5593,7 @@
         <v>356</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
         <v>357</v>
@@ -5750,13 +5750,13 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5767,10 +5767,10 @@
         <v>334</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5781,10 +5781,10 @@
         <v>335</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,10 +5795,10 @@
         <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,10 +5809,10 @@
         <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -5839,13 +5839,13 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5856,10 +5856,10 @@
         <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5867,13 +5867,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
         <v>436</v>
       </c>
-      <c r="C3" t="s">
-        <v>438</v>
-      </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5881,13 +5881,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
